--- a/biology/Neurosciences/Équation_de_Goldman-Hodgkin-Katz_en_tension/Équation_de_Goldman-Hodgkin-Katz_en_tension.xlsx
+++ b/biology/Neurosciences/Équation_de_Goldman-Hodgkin-Katz_en_tension/Équation_de_Goldman-Hodgkin-Katz_en_tension.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Goldman-Hodgkin-Katz_en_tension</t>
+          <t>Équation_de_Goldman-Hodgkin-Katz_en_tension</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équation de Goldman-Hodgkin-Katz est une généralisation de l'équation de Nernst pour le cas d'une membrane renfermant plusieurs types de conductances. 
 Dans le cas d'une membrane séparant deux solutions renfermant un mélange NaCl + KCl et perméables à ces trois ions, on démontre que le potentiel de membrane 
@@ -591,7 +603,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Goldman-Hodgkin-Katz_en_tension</t>
+          <t>Équation_de_Goldman-Hodgkin-Katz_en_tension</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -609,7 +621,9 @@
           <t>Démonstration[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une cellule, perméable à certains ions notés i, le potentiel électrochimique de membrane Em est causé par l'équilibre thermodynamique entre le champ électrique moyen et le gradient de concentration ionique [i] entre l'intérieur et l'extérieur de la cellule. Afin de faciliter les calculs, il est considéré que le mouvement des ions se produit uniquement dans la direction x et que le champ électrique est constant à travers la membrane, de telle façon qu'il prend la valeur Em/L, où L est la largeur de celle-ci.
 Le flux ionique ji, c'est-à-dire le nombre d'ions traversant, vers l'extérieur, une unité d'aire de la membrane  par unité de temps, est déterminé par l'équation de Nernst-Planck.
